--- a/Diem/Nhom 3.xlsx
+++ b/Diem/Nhom 3.xlsx
@@ -204,12 +204,6 @@
     <t>Nhóm 26</t>
   </si>
   <si>
-    <t>0712360</t>
-  </si>
-  <si>
-    <t>Diệp Lan Quỳnh</t>
-  </si>
-  <si>
     <t>0812050</t>
   </si>
   <si>
@@ -228,12 +222,6 @@
     <t>Võ Nguyễn Trí Danh</t>
   </si>
   <si>
-    <t>0812590</t>
-  </si>
-  <si>
-    <t>Nguyễn Thanh Tú</t>
-  </si>
-  <si>
     <t>Nhóm 27</t>
   </si>
   <si>
@@ -364,6 +352,18 @@
   </si>
   <si>
     <t>Iteration 1</t>
+  </si>
+  <si>
+    <t>Võ Tiết Huy</t>
+  </si>
+  <si>
+    <t>Lê Hồng Ngọc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0812050 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0812341 </t>
   </si>
 </sst>
 </file>
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,7 +931,7 @@
         <v>30</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -943,7 +943,7 @@
         <v>32</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -955,7 +955,7 @@
         <v>34</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -967,7 +967,7 @@
         <v>36</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -979,7 +979,7 @@
         <v>38</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1135,10 +1135,10 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="D35">
         <v>9</v>
@@ -1147,10 +1147,10 @@
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D36">
         <v>9</v>
@@ -1159,10 +1159,10 @@
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D37">
         <v>9</v>
@@ -1171,10 +1171,10 @@
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D38">
         <v>9</v>
@@ -1183,10 +1183,10 @@
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="D39">
         <v>9</v>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
@@ -1205,10 +1205,10 @@
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D41">
         <v>9</v>
@@ -1217,10 +1217,10 @@
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D42">
         <v>9</v>
@@ -1229,10 +1229,10 @@
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D43">
         <v>9</v>
@@ -1241,10 +1241,10 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D44">
         <v>9</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
@@ -1263,10 +1263,10 @@
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D46">
         <v>9</v>
@@ -1275,10 +1275,10 @@
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D47">
         <v>9</v>
@@ -1287,10 +1287,10 @@
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D48">
         <v>9</v>
@@ -1299,10 +1299,10 @@
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D49">
         <v>9</v>
@@ -1311,10 +1311,10 @@
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D50">
         <v>9</v>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
@@ -1333,10 +1333,10 @@
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D52">
         <v>9</v>
@@ -1345,10 +1345,10 @@
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D53">
         <v>9</v>
@@ -1357,10 +1357,10 @@
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D54">
         <v>9</v>
@@ -1369,10 +1369,10 @@
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D55">
         <v>9</v>
@@ -1381,10 +1381,10 @@
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D56">
         <v>9</v>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="5"/>
@@ -1403,10 +1403,10 @@
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C58" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D58">
         <v>3</v>
@@ -1415,10 +1415,10 @@
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C59" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D59">
         <v>3</v>
@@ -1427,10 +1427,10 @@
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C60" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D60">
         <v>3</v>
@@ -1439,10 +1439,10 @@
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C61" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D61">
         <v>3</v>
@@ -1451,10 +1451,10 @@
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C62" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -1469,8 +1469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -1873,10 +1873,10 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="D35">
         <v>1.5</v>
@@ -1885,10 +1885,10 @@
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D36">
         <v>1.5</v>
@@ -1897,10 +1897,10 @@
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D37">
         <v>1.5</v>
@@ -1909,10 +1909,10 @@
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D38">
         <v>1.5</v>
@@ -1921,10 +1921,10 @@
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="D39">
         <v>1.5</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
@@ -1943,10 +1943,10 @@
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1955,10 +1955,10 @@
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1967,10 +1967,10 @@
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1979,10 +1979,10 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
@@ -2001,10 +2001,10 @@
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D46">
         <v>1.5</v>
@@ -2013,10 +2013,10 @@
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D47">
         <v>1.5</v>
@@ -2025,10 +2025,10 @@
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D48">
         <v>1.5</v>
@@ -2037,10 +2037,10 @@
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D49">
         <v>1.5</v>
@@ -2049,10 +2049,10 @@
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D50">
         <v>1.5</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
@@ -2071,10 +2071,10 @@
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2083,10 +2083,10 @@
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2095,10 +2095,10 @@
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2107,10 +2107,10 @@
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2119,10 +2119,10 @@
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2130,7 +2130,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="5"/>
@@ -2141,10 +2141,10 @@
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C58" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2153,10 +2153,10 @@
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C59" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2165,10 +2165,10 @@
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C60" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2177,10 +2177,10 @@
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C61" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2189,10 +2189,10 @@
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C62" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2207,8 +2207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2612,10 +2612,10 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="D35">
         <v>9</v>
@@ -2624,10 +2624,10 @@
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D36">
         <v>9</v>
@@ -2636,10 +2636,10 @@
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D37">
         <v>9</v>
@@ -2648,10 +2648,10 @@
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D38">
         <v>9</v>
@@ -2660,10 +2660,10 @@
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="D39">
         <v>9</v>
@@ -2671,65 +2671,65 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
       <c r="E40">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D41">
-        <v>1.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D42">
-        <v>1.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D43">
-        <v>1.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D44">
-        <v>1.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
@@ -2740,10 +2740,10 @@
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D46">
         <v>9</v>
@@ -2752,10 +2752,10 @@
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D47">
         <v>9</v>
@@ -2764,10 +2764,10 @@
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D48">
         <v>9</v>
@@ -2776,10 +2776,10 @@
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D49">
         <v>9</v>
@@ -2788,10 +2788,10 @@
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D50">
         <v>9</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
@@ -2810,10 +2810,10 @@
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D52">
         <v>9</v>
@@ -2822,22 +2822,22 @@
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D53">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D54">
         <v>9</v>
@@ -2846,22 +2846,22 @@
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D55">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D56">
         <v>9</v>
@@ -2869,72 +2869,72 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="5"/>
       <c r="E57">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C58" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D58">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C59" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D59">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C60" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D60">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C61" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D61">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C62" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D62">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Diem/Nhom 3.xlsx
+++ b/Diem/Nhom 3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -360,10 +360,10 @@
     <t>Lê Hồng Ngọc</t>
   </si>
   <si>
-    <t xml:space="preserve">0812050 </t>
-  </si>
-  <si>
     <t xml:space="preserve">0812341 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0812190  </t>
   </si>
 </sst>
 </file>
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:C39"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1135,7 +1135,7 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>112</v>
@@ -1183,7 +1183,7 @@
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>113</v>
@@ -1873,7 +1873,7 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>112</v>
@@ -1921,7 +1921,7 @@
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>113</v>
@@ -2207,8 +2207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2612,7 +2612,7 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>112</v>
@@ -2660,7 +2660,7 @@
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>113</v>

--- a/Diem/Nhom 3.xlsx
+++ b/Diem/Nhom 3.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Version Control" sheetId="1" r:id="rId1"/>
+    <sheet name="Project Plan" sheetId="2" r:id="rId2"/>
+    <sheet name="Iteration 1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:C39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1469,8 +1469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2207,8 +2207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:C39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Diem/Nhom 3.xlsx
+++ b/Diem/Nhom 3.xlsx
@@ -2986,8 +2986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3666,7 +3666,7 @@
         <v>96</v>
       </c>
       <c r="D55">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -3678,7 +3678,7 @@
         <v>98</v>
       </c>
       <c r="D56">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">

--- a/Diem/Nhom 3.xlsx
+++ b/Diem/Nhom 3.xlsx
@@ -461,6 +461,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -474,10 +542,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4B4B4B"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="F0F0F0"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2986,8 +3054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="B29" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3423,7 +3491,7 @@
         <v>112</v>
       </c>
       <c r="D35">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -3435,7 +3503,7 @@
         <v>63</v>
       </c>
       <c r="D36">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -3447,7 +3515,7 @@
         <v>65</v>
       </c>
       <c r="D37">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -3471,7 +3539,7 @@
         <v>113</v>
       </c>
       <c r="D39">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">

--- a/Diem/Nhom 3.xlsx
+++ b/Diem/Nhom 3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="3"/>
@@ -12,7 +12,7 @@
     <sheet name="Iteration 1" sheetId="3" r:id="rId3"/>
     <sheet name="Iteration 2, Specs and Design" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -397,8 +397,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,74 +461,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -542,10 +474,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4B4B4B"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="F0F0F0"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -612,7 +544,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -647,7 +578,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -823,14 +753,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
@@ -840,7 +770,7 @@
     <col min="6" max="6" width="59.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -848,7 +778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -860,7 +790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -872,7 +802,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -882,7 +812,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -894,7 +824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
@@ -906,7 +836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>11</v>
@@ -918,7 +848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>13</v>
@@ -930,7 +860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>15</v>
@@ -942,7 +872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -952,7 +882,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
@@ -964,7 +894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>20</v>
@@ -976,7 +906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>22</v>
@@ -988,7 +918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>24</v>
@@ -1000,7 +930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -1012,7 +942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -1022,7 +952,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -1034,7 +964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>31</v>
@@ -1046,7 +976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>33</v>
@@ -1058,7 +988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>35</v>
@@ -1070,7 +1000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>37</v>
@@ -1082,7 +1012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -1092,7 +1022,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>40</v>
@@ -1104,7 +1034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>42</v>
@@ -1116,7 +1046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>44</v>
@@ -1128,7 +1058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>46</v>
@@ -1140,7 +1070,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>48</v>
@@ -1152,7 +1082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="4" t="s">
         <v>50</v>
       </c>
@@ -1162,7 +1092,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>51</v>
@@ -1174,7 +1104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>53</v>
@@ -1186,7 +1116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>55</v>
@@ -1198,7 +1128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>57</v>
@@ -1210,7 +1140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>59</v>
@@ -1222,7 +1152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="4" t="s">
         <v>61</v>
       </c>
@@ -1232,7 +1162,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>115</v>
@@ -1244,7 +1174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>62</v>
@@ -1256,7 +1186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>64</v>
@@ -1268,7 +1198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>66</v>
@@ -1280,7 +1210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>114</v>
@@ -1292,7 +1222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="4" t="s">
         <v>68</v>
       </c>
@@ -1302,7 +1232,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>69</v>
@@ -1314,7 +1244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>71</v>
@@ -1326,7 +1256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>73</v>
@@ -1338,7 +1268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>75</v>
@@ -1350,7 +1280,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="4" t="s">
         <v>77</v>
       </c>
@@ -1360,7 +1290,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>78</v>
@@ -1372,7 +1302,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
         <v>80</v>
@@ -1384,7 +1314,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>82</v>
@@ -1396,7 +1326,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
         <v>84</v>
@@ -1408,7 +1338,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
         <v>86</v>
@@ -1420,7 +1350,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="4" t="s">
         <v>88</v>
       </c>
@@ -1430,7 +1360,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>89</v>
@@ -1442,7 +1372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
         <v>91</v>
@@ -1454,7 +1384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
         <v>93</v>
@@ -1466,7 +1396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
         <v>95</v>
@@ -1478,7 +1408,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
         <v>97</v>
@@ -1490,7 +1420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" s="4" t="s">
         <v>99</v>
       </c>
@@ -1500,7 +1430,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" s="4"/>
       <c r="B58" s="1" t="s">
         <v>100</v>
@@ -1512,7 +1442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" s="4"/>
       <c r="B59" s="1" t="s">
         <v>102</v>
@@ -1524,7 +1454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" s="4"/>
       <c r="B60" s="1" t="s">
         <v>104</v>
@@ -1536,7 +1466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" s="4"/>
       <c r="B61" s="1" t="s">
         <v>106</v>
@@ -1548,7 +1478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" s="4"/>
       <c r="B62" s="1" t="s">
         <v>108</v>
@@ -1566,20 +1496,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1588,7 +1518,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -1600,7 +1530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1614,7 +1544,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1624,7 +1554,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -1636,7 +1566,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
@@ -1648,7 +1578,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>11</v>
@@ -1660,7 +1590,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>13</v>
@@ -1672,7 +1602,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>15</v>
@@ -1684,7 +1614,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -1694,7 +1624,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
@@ -1706,7 +1636,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>20</v>
@@ -1718,7 +1648,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>22</v>
@@ -1730,7 +1660,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>24</v>
@@ -1742,7 +1672,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -1754,7 +1684,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -1764,7 +1694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -1776,7 +1706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>31</v>
@@ -1788,7 +1718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>33</v>
@@ -1800,7 +1730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>35</v>
@@ -1812,7 +1742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>37</v>
@@ -1824,7 +1754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -1834,7 +1764,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>40</v>
@@ -1846,7 +1776,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>42</v>
@@ -1858,7 +1788,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>44</v>
@@ -1870,7 +1800,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>46</v>
@@ -1882,7 +1812,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>48</v>
@@ -1894,7 +1824,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="4" t="s">
         <v>50</v>
       </c>
@@ -1904,7 +1834,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>51</v>
@@ -1916,7 +1846,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>53</v>
@@ -1928,7 +1858,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>55</v>
@@ -1940,7 +1870,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>57</v>
@@ -1952,7 +1882,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>59</v>
@@ -1964,7 +1894,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="4" t="s">
         <v>61</v>
       </c>
@@ -1974,7 +1904,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>115</v>
@@ -1986,7 +1916,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>62</v>
@@ -1998,7 +1928,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>64</v>
@@ -2010,7 +1940,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>66</v>
@@ -2022,7 +1952,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>114</v>
@@ -2034,7 +1964,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="4" t="s">
         <v>68</v>
       </c>
@@ -2044,7 +1974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>69</v>
@@ -2056,7 +1986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>71</v>
@@ -2068,7 +1998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>73</v>
@@ -2080,7 +2010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>75</v>
@@ -2092,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="4" t="s">
         <v>77</v>
       </c>
@@ -2102,7 +2032,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>78</v>
@@ -2114,7 +2044,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
         <v>80</v>
@@ -2126,7 +2056,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>82</v>
@@ -2138,7 +2068,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
         <v>84</v>
@@ -2150,7 +2080,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
         <v>86</v>
@@ -2162,7 +2092,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="4" t="s">
         <v>88</v>
       </c>
@@ -2172,7 +2102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>89</v>
@@ -2184,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
         <v>91</v>
@@ -2196,7 +2126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
         <v>93</v>
@@ -2208,7 +2138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
         <v>95</v>
@@ -2220,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
         <v>97</v>
@@ -2232,7 +2162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" s="4" t="s">
         <v>99</v>
       </c>
@@ -2242,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" s="4"/>
       <c r="B58" s="1" t="s">
         <v>100</v>
@@ -2254,7 +2184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" s="4"/>
       <c r="B59" s="1" t="s">
         <v>102</v>
@@ -2266,7 +2196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" s="4"/>
       <c r="B60" s="1" t="s">
         <v>104</v>
@@ -2278,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" s="4"/>
       <c r="B61" s="1" t="s">
         <v>106</v>
@@ -2290,7 +2220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" s="4"/>
       <c r="B62" s="1" t="s">
         <v>108</v>
@@ -2308,14 +2238,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
@@ -2325,7 +2255,7 @@
     <col min="6" max="6" width="59.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2333,7 +2263,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -2345,7 +2275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2357,7 +2287,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -2367,7 +2297,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -2379,7 +2309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
@@ -2391,7 +2321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>11</v>
@@ -2403,7 +2333,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>13</v>
@@ -2415,7 +2345,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>15</v>
@@ -2427,7 +2357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -2437,7 +2367,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
@@ -2449,7 +2379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>20</v>
@@ -2461,7 +2391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>22</v>
@@ -2473,7 +2403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>24</v>
@@ -2485,7 +2415,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -2497,7 +2427,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -2507,7 +2437,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -2519,7 +2449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>31</v>
@@ -2531,7 +2461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>33</v>
@@ -2543,7 +2473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>35</v>
@@ -2555,7 +2485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>37</v>
@@ -2567,7 +2497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -2577,7 +2507,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>40</v>
@@ -2589,7 +2519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>42</v>
@@ -2601,7 +2531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>44</v>
@@ -2613,7 +2543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>46</v>
@@ -2625,7 +2555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>48</v>
@@ -2637,7 +2567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="4" t="s">
         <v>50</v>
       </c>
@@ -2647,7 +2577,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>51</v>
@@ -2659,7 +2589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>53</v>
@@ -2671,7 +2601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>55</v>
@@ -2683,7 +2613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>57</v>
@@ -2695,7 +2625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>59</v>
@@ -2707,7 +2637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="4" t="s">
         <v>61</v>
       </c>
@@ -2717,7 +2647,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>115</v>
@@ -2729,7 +2659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>62</v>
@@ -2741,7 +2671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>64</v>
@@ -2753,7 +2683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>66</v>
@@ -2765,7 +2695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>114</v>
@@ -2777,7 +2707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="4" t="s">
         <v>68</v>
       </c>
@@ -2787,7 +2717,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>69</v>
@@ -2799,7 +2729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>71</v>
@@ -2811,7 +2741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>73</v>
@@ -2823,7 +2753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>75</v>
@@ -2835,7 +2765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="4" t="s">
         <v>77</v>
       </c>
@@ -2845,7 +2775,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>78</v>
@@ -2857,7 +2787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
         <v>80</v>
@@ -2869,7 +2799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>82</v>
@@ -2881,7 +2811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
         <v>84</v>
@@ -2893,7 +2823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
         <v>86</v>
@@ -2905,7 +2835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="4" t="s">
         <v>88</v>
       </c>
@@ -2915,7 +2845,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>89</v>
@@ -2927,7 +2857,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
         <v>91</v>
@@ -2939,7 +2869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
         <v>93</v>
@@ -2951,7 +2881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
         <v>95</v>
@@ -2963,7 +2893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
         <v>97</v>
@@ -2975,7 +2905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" s="4" t="s">
         <v>99</v>
       </c>
@@ -2985,7 +2915,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" s="4"/>
       <c r="B58" s="1" t="s">
         <v>100</v>
@@ -2997,7 +2927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" s="4"/>
       <c r="B59" s="1" t="s">
         <v>102</v>
@@ -3009,7 +2939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" s="4"/>
       <c r="B60" s="1" t="s">
         <v>104</v>
@@ -3021,7 +2951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" s="4"/>
       <c r="B61" s="1" t="s">
         <v>106</v>
@@ -3033,7 +2963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" s="4"/>
       <c r="B62" s="1" t="s">
         <v>108</v>
@@ -3051,14 +2981,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B29" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
@@ -3068,7 +2998,7 @@
     <col min="6" max="6" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3077,7 +3007,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -3089,7 +3019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -3104,7 +3034,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -3117,7 +3047,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -3129,7 +3059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
@@ -3141,7 +3071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>11</v>
@@ -3153,7 +3083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>13</v>
@@ -3165,7 +3095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>15</v>
@@ -3177,7 +3107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -3190,7 +3120,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
@@ -3202,7 +3132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>20</v>
@@ -3214,7 +3144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>22</v>
@@ -3226,7 +3156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>24</v>
@@ -3238,7 +3168,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -3250,7 +3180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -3263,7 +3193,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -3275,7 +3205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>31</v>
@@ -3287,7 +3217,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>33</v>
@@ -3299,7 +3229,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>35</v>
@@ -3311,7 +3241,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>37</v>
@@ -3323,7 +3253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -3336,7 +3266,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>40</v>
@@ -3348,7 +3278,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>42</v>
@@ -3360,7 +3290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>44</v>
@@ -3372,7 +3302,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>46</v>
@@ -3384,7 +3314,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>48</v>
@@ -3396,7 +3326,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="4" t="s">
         <v>50</v>
       </c>
@@ -3409,7 +3339,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>51</v>
@@ -3421,7 +3351,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>53</v>
@@ -3433,7 +3363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>55</v>
@@ -3445,7 +3375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>57</v>
@@ -3457,7 +3387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>59</v>
@@ -3469,7 +3399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="4" t="s">
         <v>61</v>
       </c>
@@ -3482,7 +3412,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>115</v>
@@ -3491,10 +3421,10 @@
         <v>112</v>
       </c>
       <c r="D35">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>62</v>
@@ -3503,10 +3433,10 @@
         <v>63</v>
       </c>
       <c r="D36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>64</v>
@@ -3515,10 +3445,10 @@
         <v>65</v>
       </c>
       <c r="D37">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>66</v>
@@ -3530,7 +3460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>114</v>
@@ -3539,10 +3469,10 @@
         <v>113</v>
       </c>
       <c r="D39">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="4" t="s">
         <v>68</v>
       </c>
@@ -3555,7 +3485,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>69</v>
@@ -3567,7 +3497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>71</v>
@@ -3579,7 +3509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>73</v>
@@ -3591,7 +3521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>75</v>
@@ -3603,7 +3533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" s="4" t="s">
         <v>77</v>
       </c>
@@ -3616,7 +3546,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>78</v>
@@ -3628,7 +3558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
         <v>80</v>
@@ -3640,7 +3570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>82</v>
@@ -3652,7 +3582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
         <v>84</v>
@@ -3664,7 +3594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
         <v>86</v>
@@ -3676,7 +3606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" s="4" t="s">
         <v>88</v>
       </c>
@@ -3689,7 +3619,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>89</v>
@@ -3701,7 +3631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
         <v>91</v>
@@ -3713,7 +3643,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
         <v>93</v>
@@ -3725,7 +3655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
         <v>95</v>
@@ -3734,10 +3664,10 @@
         <v>96</v>
       </c>
       <c r="D55">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
         <v>97</v>
@@ -3746,10 +3676,10 @@
         <v>98</v>
       </c>
       <c r="D56">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="4" t="s">
         <v>99</v>
       </c>
@@ -3762,7 +3692,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" s="4"/>
       <c r="B58" s="1" t="s">
         <v>100</v>
@@ -3774,7 +3704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" s="4"/>
       <c r="B59" s="1" t="s">
         <v>102</v>
@@ -3786,7 +3716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" s="4"/>
       <c r="B60" s="1" t="s">
         <v>104</v>
@@ -3798,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" s="4"/>
       <c r="B61" s="1" t="s">
         <v>106</v>
@@ -3810,7 +3740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" s="4"/>
       <c r="B62" s="1" t="s">
         <v>108</v>

--- a/Diem/Nhom 3.xlsx
+++ b/Diem/Nhom 3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="3"/>
@@ -12,7 +12,7 @@
     <sheet name="Iteration 1" sheetId="3" r:id="rId3"/>
     <sheet name="Iteration 2, Specs and Design" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -397,8 +397,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,6 +544,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -578,6 +579,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -753,14 +755,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
@@ -770,7 +772,7 @@
     <col min="6" max="6" width="59.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -778,7 +780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -790,7 +792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -802,7 +804,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -812,7 +814,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -824,7 +826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
@@ -836,7 +838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>11</v>
@@ -848,7 +850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>13</v>
@@ -860,7 +862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>15</v>
@@ -872,7 +874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -882,7 +884,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
@@ -894,7 +896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>20</v>
@@ -906,7 +908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>22</v>
@@ -918,7 +920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>24</v>
@@ -930,7 +932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -942,7 +944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -952,7 +954,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -964,7 +966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>31</v>
@@ -976,7 +978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>33</v>
@@ -988,7 +990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>35</v>
@@ -1000,7 +1002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>37</v>
@@ -1012,7 +1014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -1022,7 +1024,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>40</v>
@@ -1034,7 +1036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>42</v>
@@ -1046,7 +1048,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>44</v>
@@ -1058,7 +1060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>46</v>
@@ -1070,7 +1072,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>48</v>
@@ -1082,7 +1084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>50</v>
       </c>
@@ -1092,7 +1094,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>51</v>
@@ -1104,7 +1106,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>53</v>
@@ -1116,7 +1118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>55</v>
@@ -1128,7 +1130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>57</v>
@@ -1140,7 +1142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>59</v>
@@ -1152,7 +1154,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>61</v>
       </c>
@@ -1162,7 +1164,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>115</v>
@@ -1174,7 +1176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>62</v>
@@ -1186,7 +1188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>64</v>
@@ -1198,7 +1200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>66</v>
@@ -1210,7 +1212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>114</v>
@@ -1222,7 +1224,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>68</v>
       </c>
@@ -1232,7 +1234,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>69</v>
@@ -1244,7 +1246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>71</v>
@@ -1256,7 +1258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>73</v>
@@ -1268,7 +1270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>75</v>
@@ -1280,7 +1282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>77</v>
       </c>
@@ -1290,7 +1292,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>78</v>
@@ -1302,7 +1304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
         <v>80</v>
@@ -1314,7 +1316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>82</v>
@@ -1326,7 +1328,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
         <v>84</v>
@@ -1338,7 +1340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
         <v>86</v>
@@ -1350,7 +1352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>88</v>
       </c>
@@ -1360,7 +1362,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>89</v>
@@ -1372,7 +1374,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
         <v>91</v>
@@ -1384,7 +1386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
         <v>93</v>
@@ -1396,7 +1398,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
         <v>95</v>
@@ -1405,10 +1407,10 @@
         <v>96</v>
       </c>
       <c r="D55">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
         <v>97</v>
@@ -1417,10 +1419,10 @@
         <v>98</v>
       </c>
       <c r="D56">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>99</v>
       </c>
@@ -1430,7 +1432,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="1" t="s">
         <v>100</v>
@@ -1442,7 +1444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="1" t="s">
         <v>102</v>
@@ -1454,7 +1456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="1" t="s">
         <v>104</v>
@@ -1466,7 +1468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="1" t="s">
         <v>106</v>
@@ -1478,7 +1480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="1" t="s">
         <v>108</v>
@@ -1496,20 +1498,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1518,7 +1520,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -1530,7 +1532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1544,7 +1546,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1554,7 +1556,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -1566,7 +1568,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
@@ -1578,7 +1580,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>11</v>
@@ -1590,7 +1592,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>13</v>
@@ -1602,7 +1604,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>15</v>
@@ -1614,7 +1616,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -1624,7 +1626,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
@@ -1636,7 +1638,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>20</v>
@@ -1648,7 +1650,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>22</v>
@@ -1660,7 +1662,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>24</v>
@@ -1672,7 +1674,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -1684,7 +1686,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -1694,7 +1696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -1706,7 +1708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>31</v>
@@ -1718,7 +1720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>33</v>
@@ -1730,7 +1732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>35</v>
@@ -1742,7 +1744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>37</v>
@@ -1754,7 +1756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -1764,7 +1766,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>40</v>
@@ -1776,7 +1778,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>42</v>
@@ -1788,7 +1790,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>44</v>
@@ -1800,7 +1802,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>46</v>
@@ -1812,7 +1814,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>48</v>
@@ -1824,7 +1826,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>50</v>
       </c>
@@ -1834,7 +1836,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>51</v>
@@ -1846,7 +1848,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>53</v>
@@ -1858,7 +1860,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>55</v>
@@ -1870,7 +1872,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>57</v>
@@ -1882,7 +1884,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>59</v>
@@ -1894,7 +1896,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>61</v>
       </c>
@@ -1904,7 +1906,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>115</v>
@@ -1916,7 +1918,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>62</v>
@@ -1928,7 +1930,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>64</v>
@@ -1940,7 +1942,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>66</v>
@@ -1952,7 +1954,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>114</v>
@@ -1964,7 +1966,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>68</v>
       </c>
@@ -1974,7 +1976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>69</v>
@@ -1986,7 +1988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>71</v>
@@ -1998,7 +2000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>73</v>
@@ -2010,7 +2012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>75</v>
@@ -2022,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>77</v>
       </c>
@@ -2032,7 +2034,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>78</v>
@@ -2044,7 +2046,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
         <v>80</v>
@@ -2056,7 +2058,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>82</v>
@@ -2068,7 +2070,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
         <v>84</v>
@@ -2080,7 +2082,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
         <v>86</v>
@@ -2092,7 +2094,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>88</v>
       </c>
@@ -2102,7 +2104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>89</v>
@@ -2114,7 +2116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
         <v>91</v>
@@ -2126,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
         <v>93</v>
@@ -2138,7 +2140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
         <v>95</v>
@@ -2150,7 +2152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
         <v>97</v>
@@ -2162,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>99</v>
       </c>
@@ -2172,7 +2174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="1" t="s">
         <v>100</v>
@@ -2184,7 +2186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="1" t="s">
         <v>102</v>
@@ -2196,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="1" t="s">
         <v>104</v>
@@ -2208,7 +2210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="1" t="s">
         <v>106</v>
@@ -2220,7 +2222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="1" t="s">
         <v>108</v>
@@ -2238,14 +2240,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
@@ -2255,7 +2257,7 @@
     <col min="6" max="6" width="59.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2263,7 +2265,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -2275,7 +2277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2287,7 +2289,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -2297,7 +2299,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -2309,7 +2311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
@@ -2321,7 +2323,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>11</v>
@@ -2333,7 +2335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>13</v>
@@ -2345,7 +2347,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>15</v>
@@ -2357,7 +2359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -2367,7 +2369,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
@@ -2379,7 +2381,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>20</v>
@@ -2391,7 +2393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>22</v>
@@ -2403,7 +2405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>24</v>
@@ -2415,7 +2417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -2427,7 +2429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -2437,7 +2439,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -2449,7 +2451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>31</v>
@@ -2461,7 +2463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>33</v>
@@ -2473,7 +2475,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>35</v>
@@ -2485,7 +2487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>37</v>
@@ -2497,7 +2499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -2507,7 +2509,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>40</v>
@@ -2519,7 +2521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>42</v>
@@ -2531,7 +2533,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>44</v>
@@ -2543,7 +2545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>46</v>
@@ -2555,7 +2557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>48</v>
@@ -2567,7 +2569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>50</v>
       </c>
@@ -2577,7 +2579,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>51</v>
@@ -2589,7 +2591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>53</v>
@@ -2601,7 +2603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>55</v>
@@ -2613,7 +2615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>57</v>
@@ -2625,7 +2627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>59</v>
@@ -2637,7 +2639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>61</v>
       </c>
@@ -2647,7 +2649,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>115</v>
@@ -2659,7 +2661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>62</v>
@@ -2671,7 +2673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>64</v>
@@ -2683,7 +2685,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>66</v>
@@ -2695,7 +2697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>114</v>
@@ -2707,7 +2709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>68</v>
       </c>
@@ -2717,7 +2719,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>69</v>
@@ -2729,7 +2731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>71</v>
@@ -2741,7 +2743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>73</v>
@@ -2753,7 +2755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>75</v>
@@ -2765,7 +2767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>77</v>
       </c>
@@ -2775,7 +2777,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>78</v>
@@ -2787,7 +2789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
         <v>80</v>
@@ -2799,7 +2801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>82</v>
@@ -2811,7 +2813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
         <v>84</v>
@@ -2823,7 +2825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
         <v>86</v>
@@ -2835,7 +2837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>88</v>
       </c>
@@ -2845,7 +2847,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>89</v>
@@ -2857,7 +2859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
         <v>91</v>
@@ -2869,7 +2871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
         <v>93</v>
@@ -2881,7 +2883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
         <v>95</v>
@@ -2893,7 +2895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
         <v>97</v>
@@ -2905,7 +2907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>99</v>
       </c>
@@ -2915,7 +2917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="1" t="s">
         <v>100</v>
@@ -2927,7 +2929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="1" t="s">
         <v>102</v>
@@ -2939,7 +2941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="1" t="s">
         <v>104</v>
@@ -2951,7 +2953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="1" t="s">
         <v>106</v>
@@ -2963,7 +2965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="1" t="s">
         <v>108</v>
@@ -2981,14 +2983,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
@@ -2998,7 +3000,7 @@
     <col min="6" max="6" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3007,7 +3009,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -3019,7 +3021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -3034,7 +3036,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -3047,7 +3049,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -3059,7 +3061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
@@ -3071,7 +3073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>11</v>
@@ -3083,7 +3085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>13</v>
@@ -3095,7 +3097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>15</v>
@@ -3107,7 +3109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -3120,7 +3122,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
@@ -3132,7 +3134,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>20</v>
@@ -3144,7 +3146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>22</v>
@@ -3156,7 +3158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>24</v>
@@ -3168,7 +3170,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -3180,7 +3182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -3193,7 +3195,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -3205,7 +3207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>31</v>
@@ -3217,7 +3219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>33</v>
@@ -3229,7 +3231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>35</v>
@@ -3241,7 +3243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>37</v>
@@ -3253,7 +3255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -3266,7 +3268,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>40</v>
@@ -3278,7 +3280,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>42</v>
@@ -3290,7 +3292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>44</v>
@@ -3302,7 +3304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>46</v>
@@ -3314,7 +3316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>48</v>
@@ -3326,7 +3328,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>50</v>
       </c>
@@ -3339,7 +3341,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>51</v>
@@ -3351,7 +3353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>53</v>
@@ -3363,7 +3365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>55</v>
@@ -3375,7 +3377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>57</v>
@@ -3387,7 +3389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>59</v>
@@ -3399,7 +3401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>61</v>
       </c>
@@ -3412,7 +3414,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>115</v>
@@ -3424,7 +3426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>62</v>
@@ -3436,7 +3438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>64</v>
@@ -3448,7 +3450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>66</v>
@@ -3460,7 +3462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>114</v>
@@ -3472,7 +3474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>68</v>
       </c>
@@ -3485,7 +3487,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>69</v>
@@ -3497,7 +3499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>71</v>
@@ -3509,7 +3511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>73</v>
@@ -3521,7 +3523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>75</v>
@@ -3533,7 +3535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>77</v>
       </c>
@@ -3546,7 +3548,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>78</v>
@@ -3558,7 +3560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
         <v>80</v>
@@ -3570,7 +3572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>82</v>
@@ -3582,7 +3584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
         <v>84</v>
@@ -3594,7 +3596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
         <v>86</v>
@@ -3606,7 +3608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>88</v>
       </c>
@@ -3619,7 +3621,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>89</v>
@@ -3631,7 +3633,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
         <v>91</v>
@@ -3643,7 +3645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
         <v>93</v>
@@ -3652,10 +3654,10 @@
         <v>94</v>
       </c>
       <c r="D54">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
         <v>95</v>
@@ -3664,10 +3666,10 @@
         <v>96</v>
       </c>
       <c r="D55">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
         <v>97</v>
@@ -3679,7 +3681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>99</v>
       </c>
@@ -3692,7 +3694,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="1" t="s">
         <v>100</v>
@@ -3704,7 +3706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="1" t="s">
         <v>102</v>
@@ -3716,7 +3718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="1" t="s">
         <v>104</v>
@@ -3728,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="1" t="s">
         <v>106</v>
@@ -3740,7 +3742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="1" t="s">
         <v>108</v>

--- a/Diem/Nhom 3.xlsx
+++ b/Diem/Nhom 3.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Version Control" sheetId="1" r:id="rId1"/>
     <sheet name="Project Plan" sheetId="2" r:id="rId2"/>
     <sheet name="Iteration 1" sheetId="3" r:id="rId3"/>
     <sheet name="Iteration 2, Specs and Design" sheetId="4" r:id="rId4"/>
+    <sheet name="Iteration 3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="130">
   <si>
     <t>Đề tài:</t>
   </si>
@@ -392,6 +393,21 @@
   </si>
   <si>
     <t>giao diện các bạn còn 1 số lỗi do một số nhóm đã góp ý</t>
+  </si>
+  <si>
+    <t>Iteration 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lần insert thứ nhất các bạn làm csdl sai mà không xem xét trước khi nộp </t>
+  </si>
+  <si>
+    <t>các bạn còn làm một số chức năng có sai sót  như mình đã đưa ra, nhưng nhìn chung các bạn có ý thức sửa và làm lại tốt</t>
+  </si>
+  <si>
+    <t>các bạn insert lần 2 add sai dữ liệu</t>
+  </si>
+  <si>
+    <t>các bạn liên tục không nộp bài hoặc không tổng hợp dữ liệu.</t>
   </si>
 </sst>
 </file>
@@ -2986,8 +3002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D54" sqref="A1:F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3758,4 +3774,778 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2">
+        <f xml:space="preserve"> SUM(D5:D62)</f>
+        <v>420</v>
+      </c>
+      <c r="E3" s="2">
+        <f>SUM(E4:E62)</f>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="E10">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="F16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="E22">
+        <v>50</v>
+      </c>
+      <c r="F22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="E28">
+        <v>50</v>
+      </c>
+      <c r="F28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="E34">
+        <v>50</v>
+      </c>
+      <c r="F34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="E40">
+        <v>30</v>
+      </c>
+      <c r="F40" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
+      <c r="E45">
+        <v>50</v>
+      </c>
+      <c r="F45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="5"/>
+      <c r="E51">
+        <v>50</v>
+      </c>
+      <c r="F51" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="5"/>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" t="s">
+        <v>101</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" t="s">
+        <v>105</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" t="s">
+        <v>107</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" t="s">
+        <v>109</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Diem/Nhom 3.xlsx
+++ b/Diem/Nhom 3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Version Control" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Iteration 1" sheetId="3" r:id="rId3"/>
     <sheet name="Iteration 2, Specs and Design" sheetId="4" r:id="rId4"/>
     <sheet name="Iteration 3" sheetId="5" r:id="rId5"/>
+    <sheet name="Iteration 4 (thuat toan)" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="134">
   <si>
     <t>Đề tài:</t>
   </si>
@@ -408,6 +409,18 @@
   </si>
   <si>
     <t>các bạn liên tục không nộp bài hoặc không tổng hợp dữ liệu.</t>
+  </si>
+  <si>
+    <t>Iteration 4</t>
+  </si>
+  <si>
+    <t>không nộp bài</t>
+  </si>
+  <si>
+    <t>không  nộp bài</t>
+  </si>
+  <si>
+    <t>các bạn không làm unit test, nhưng có update 1 số tính năng</t>
   </si>
 </sst>
 </file>
@@ -3780,8 +3793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="A1:F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,4 +4561,775 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2">
+        <f xml:space="preserve"> SUM(D5:D62)</f>
+        <v>200</v>
+      </c>
+      <c r="E3" s="2">
+        <f>SUM(E4:E62)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="E4">
+        <v>27.5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="E10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="E16">
+        <v>27.5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="E22">
+        <v>27.5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="E28">
+        <v>27.5</v>
+      </c>
+      <c r="F28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="E34">
+        <v>15</v>
+      </c>
+      <c r="F34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
+      <c r="E45">
+        <v>27.5</v>
+      </c>
+      <c r="F45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="5"/>
+      <c r="E51">
+        <v>27.5</v>
+      </c>
+      <c r="F51" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="5"/>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" t="s">
+        <v>101</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" t="s">
+        <v>105</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" t="s">
+        <v>107</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" t="s">
+        <v>109</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Diem/Nhom 3.xlsx
+++ b/Diem/Nhom 3.xlsx
@@ -4567,8 +4567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4998,7 +4998,7 @@
         <v>112</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -5010,7 +5010,7 @@
         <v>63</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -5022,7 +5022,7 @@
         <v>65</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -5034,7 +5034,7 @@
         <v>67</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -5046,7 +5046,7 @@
         <v>113</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">

--- a/Diem/Nhom 3.xlsx
+++ b/Diem/Nhom 3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="5"/>
@@ -14,7 +14,7 @@
     <sheet name="Iteration 3" sheetId="5" r:id="rId5"/>
     <sheet name="Iteration 4 (thuat toan)" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -426,8 +426,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -573,7 +573,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -608,7 +607,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -784,14 +782,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
@@ -801,7 +799,7 @@
     <col min="6" max="6" width="59.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -809,7 +807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -821,7 +819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -833,7 +831,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -843,7 +841,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -855,7 +853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
@@ -867,7 +865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>11</v>
@@ -879,7 +877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>13</v>
@@ -891,7 +889,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>15</v>
@@ -903,7 +901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -913,7 +911,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
@@ -925,7 +923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>20</v>
@@ -937,7 +935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>22</v>
@@ -949,7 +947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>24</v>
@@ -961,7 +959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -973,7 +971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -983,7 +981,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -995,7 +993,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>31</v>
@@ -1007,7 +1005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>33</v>
@@ -1019,7 +1017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>35</v>
@@ -1031,7 +1029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>37</v>
@@ -1043,7 +1041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -1053,7 +1051,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>40</v>
@@ -1065,7 +1063,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>42</v>
@@ -1077,7 +1075,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>44</v>
@@ -1089,7 +1087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>46</v>
@@ -1101,7 +1099,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>48</v>
@@ -1113,7 +1111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="4" t="s">
         <v>50</v>
       </c>
@@ -1123,7 +1121,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>51</v>
@@ -1135,7 +1133,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>53</v>
@@ -1147,7 +1145,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>55</v>
@@ -1159,7 +1157,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>57</v>
@@ -1171,7 +1169,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>59</v>
@@ -1183,7 +1181,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="4" t="s">
         <v>61</v>
       </c>
@@ -1193,7 +1191,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>115</v>
@@ -1205,7 +1203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>62</v>
@@ -1217,7 +1215,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>64</v>
@@ -1229,7 +1227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>66</v>
@@ -1241,7 +1239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>114</v>
@@ -1253,7 +1251,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="4" t="s">
         <v>68</v>
       </c>
@@ -1263,7 +1261,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>69</v>
@@ -1275,7 +1273,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>71</v>
@@ -1287,7 +1285,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>73</v>
@@ -1299,7 +1297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>75</v>
@@ -1311,7 +1309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="4" t="s">
         <v>77</v>
       </c>
@@ -1321,7 +1319,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>78</v>
@@ -1333,7 +1331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
         <v>80</v>
@@ -1345,7 +1343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>82</v>
@@ -1357,7 +1355,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
         <v>84</v>
@@ -1369,7 +1367,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
         <v>86</v>
@@ -1381,7 +1379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="4" t="s">
         <v>88</v>
       </c>
@@ -1391,7 +1389,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>89</v>
@@ -1403,7 +1401,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
         <v>91</v>
@@ -1415,7 +1413,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
         <v>93</v>
@@ -1427,7 +1425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
         <v>95</v>
@@ -1439,7 +1437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
         <v>97</v>
@@ -1451,7 +1449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" s="4" t="s">
         <v>99</v>
       </c>
@@ -1461,7 +1459,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" s="4"/>
       <c r="B58" s="1" t="s">
         <v>100</v>
@@ -1473,7 +1471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" s="4"/>
       <c r="B59" s="1" t="s">
         <v>102</v>
@@ -1485,7 +1483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" s="4"/>
       <c r="B60" s="1" t="s">
         <v>104</v>
@@ -1497,7 +1495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" s="4"/>
       <c r="B61" s="1" t="s">
         <v>106</v>
@@ -1509,7 +1507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" s="4"/>
       <c r="B62" s="1" t="s">
         <v>108</v>
@@ -1527,20 +1525,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1549,7 +1547,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -1561,7 +1559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1575,7 +1573,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1585,7 +1583,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -1597,7 +1595,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
@@ -1609,7 +1607,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>11</v>
@@ -1621,7 +1619,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>13</v>
@@ -1633,7 +1631,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>15</v>
@@ -1645,7 +1643,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -1655,7 +1653,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
@@ -1667,7 +1665,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>20</v>
@@ -1679,7 +1677,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>22</v>
@@ -1691,7 +1689,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>24</v>
@@ -1703,7 +1701,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -1715,7 +1713,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -1725,7 +1723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -1737,7 +1735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>31</v>
@@ -1749,7 +1747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>33</v>
@@ -1761,7 +1759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>35</v>
@@ -1773,7 +1771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>37</v>
@@ -1785,7 +1783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -1795,7 +1793,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>40</v>
@@ -1807,7 +1805,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>42</v>
@@ -1819,7 +1817,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>44</v>
@@ -1831,7 +1829,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>46</v>
@@ -1843,7 +1841,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>48</v>
@@ -1855,7 +1853,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="4" t="s">
         <v>50</v>
       </c>
@@ -1865,7 +1863,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>51</v>
@@ -1877,7 +1875,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>53</v>
@@ -1889,7 +1887,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>55</v>
@@ -1901,7 +1899,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>57</v>
@@ -1913,7 +1911,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>59</v>
@@ -1925,7 +1923,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="4" t="s">
         <v>61</v>
       </c>
@@ -1935,7 +1933,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>115</v>
@@ -1947,7 +1945,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>62</v>
@@ -1959,7 +1957,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>64</v>
@@ -1971,7 +1969,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>66</v>
@@ -1983,7 +1981,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>114</v>
@@ -1995,7 +1993,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="4" t="s">
         <v>68</v>
       </c>
@@ -2005,7 +2003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>69</v>
@@ -2017,7 +2015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>71</v>
@@ -2029,7 +2027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>73</v>
@@ -2041,7 +2039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>75</v>
@@ -2053,7 +2051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="4" t="s">
         <v>77</v>
       </c>
@@ -2063,7 +2061,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>78</v>
@@ -2075,7 +2073,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
         <v>80</v>
@@ -2087,7 +2085,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>82</v>
@@ -2099,7 +2097,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
         <v>84</v>
@@ -2111,7 +2109,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
         <v>86</v>
@@ -2123,7 +2121,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="4" t="s">
         <v>88</v>
       </c>
@@ -2133,7 +2131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>89</v>
@@ -2145,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
         <v>91</v>
@@ -2157,7 +2155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
         <v>93</v>
@@ -2169,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
         <v>95</v>
@@ -2181,7 +2179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
         <v>97</v>
@@ -2193,7 +2191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" s="4" t="s">
         <v>99</v>
       </c>
@@ -2203,7 +2201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" s="4"/>
       <c r="B58" s="1" t="s">
         <v>100</v>
@@ -2215,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" s="4"/>
       <c r="B59" s="1" t="s">
         <v>102</v>
@@ -2227,7 +2225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" s="4"/>
       <c r="B60" s="1" t="s">
         <v>104</v>
@@ -2239,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" s="4"/>
       <c r="B61" s="1" t="s">
         <v>106</v>
@@ -2251,7 +2249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" s="4"/>
       <c r="B62" s="1" t="s">
         <v>108</v>
@@ -2269,14 +2267,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
@@ -2286,7 +2284,7 @@
     <col min="6" max="6" width="59.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2294,7 +2292,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -2306,7 +2304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2318,7 +2316,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -2328,7 +2326,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -2340,7 +2338,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
@@ -2352,7 +2350,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>11</v>
@@ -2364,7 +2362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>13</v>
@@ -2376,7 +2374,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>15</v>
@@ -2388,7 +2386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -2398,7 +2396,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
@@ -2410,7 +2408,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>20</v>
@@ -2422,7 +2420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>22</v>
@@ -2434,7 +2432,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>24</v>
@@ -2446,7 +2444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -2458,7 +2456,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -2468,7 +2466,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -2480,7 +2478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>31</v>
@@ -2492,7 +2490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>33</v>
@@ -2504,7 +2502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>35</v>
@@ -2516,7 +2514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>37</v>
@@ -2528,7 +2526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -2538,7 +2536,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>40</v>
@@ -2550,7 +2548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>42</v>
@@ -2562,7 +2560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>44</v>
@@ -2574,7 +2572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>46</v>
@@ -2586,7 +2584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>48</v>
@@ -2598,7 +2596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="4" t="s">
         <v>50</v>
       </c>
@@ -2608,7 +2606,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>51</v>
@@ -2620,7 +2618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>53</v>
@@ -2632,7 +2630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>55</v>
@@ -2644,7 +2642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>57</v>
@@ -2656,7 +2654,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>59</v>
@@ -2668,7 +2666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="4" t="s">
         <v>61</v>
       </c>
@@ -2678,7 +2676,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>115</v>
@@ -2690,7 +2688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>62</v>
@@ -2702,7 +2700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>64</v>
@@ -2714,7 +2712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>66</v>
@@ -2726,7 +2724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>114</v>
@@ -2738,7 +2736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="4" t="s">
         <v>68</v>
       </c>
@@ -2748,7 +2746,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>69</v>
@@ -2760,7 +2758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>71</v>
@@ -2772,7 +2770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>73</v>
@@ -2784,7 +2782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>75</v>
@@ -2796,7 +2794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="4" t="s">
         <v>77</v>
       </c>
@@ -2806,7 +2804,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>78</v>
@@ -2818,7 +2816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
         <v>80</v>
@@ -2830,7 +2828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>82</v>
@@ -2842,7 +2840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
         <v>84</v>
@@ -2854,7 +2852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
         <v>86</v>
@@ -2866,7 +2864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="4" t="s">
         <v>88</v>
       </c>
@@ -2876,7 +2874,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>89</v>
@@ -2888,7 +2886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
         <v>91</v>
@@ -2900,7 +2898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
         <v>93</v>
@@ -2912,7 +2910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
         <v>95</v>
@@ -2924,7 +2922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
         <v>97</v>
@@ -2936,7 +2934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" s="4" t="s">
         <v>99</v>
       </c>
@@ -2946,7 +2944,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" s="4"/>
       <c r="B58" s="1" t="s">
         <v>100</v>
@@ -2958,7 +2956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" s="4"/>
       <c r="B59" s="1" t="s">
         <v>102</v>
@@ -2970,7 +2968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" s="4"/>
       <c r="B60" s="1" t="s">
         <v>104</v>
@@ -2982,7 +2980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" s="4"/>
       <c r="B61" s="1" t="s">
         <v>106</v>
@@ -2994,7 +2992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" s="4"/>
       <c r="B62" s="1" t="s">
         <v>108</v>
@@ -3012,14 +3010,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="D54" sqref="A1:F62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
@@ -3029,7 +3027,7 @@
     <col min="6" max="6" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3038,7 +3036,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -3050,7 +3048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -3065,7 +3063,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -3078,7 +3076,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -3090,7 +3088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
@@ -3102,7 +3100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>11</v>
@@ -3114,7 +3112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>13</v>
@@ -3126,7 +3124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>15</v>
@@ -3138,7 +3136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -3151,7 +3149,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
@@ -3163,7 +3161,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>20</v>
@@ -3175,7 +3173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>22</v>
@@ -3187,7 +3185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>24</v>
@@ -3199,7 +3197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -3211,7 +3209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -3224,7 +3222,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -3236,7 +3234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>31</v>
@@ -3248,7 +3246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>33</v>
@@ -3260,7 +3258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>35</v>
@@ -3272,7 +3270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>37</v>
@@ -3284,7 +3282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -3297,7 +3295,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>40</v>
@@ -3309,7 +3307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>42</v>
@@ -3321,7 +3319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>44</v>
@@ -3333,7 +3331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>46</v>
@@ -3345,7 +3343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>48</v>
@@ -3357,7 +3355,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="4" t="s">
         <v>50</v>
       </c>
@@ -3370,7 +3368,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>51</v>
@@ -3382,7 +3380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>53</v>
@@ -3394,7 +3392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>55</v>
@@ -3406,7 +3404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>57</v>
@@ -3418,7 +3416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>59</v>
@@ -3430,7 +3428,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="4" t="s">
         <v>61</v>
       </c>
@@ -3443,7 +3441,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>115</v>
@@ -3455,7 +3453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>62</v>
@@ -3467,7 +3465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>64</v>
@@ -3479,7 +3477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>66</v>
@@ -3491,7 +3489,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>114</v>
@@ -3503,7 +3501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="4" t="s">
         <v>68</v>
       </c>
@@ -3516,7 +3514,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>69</v>
@@ -3528,7 +3526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>71</v>
@@ -3540,7 +3538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>73</v>
@@ -3552,7 +3550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>75</v>
@@ -3564,7 +3562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" s="4" t="s">
         <v>77</v>
       </c>
@@ -3577,7 +3575,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>78</v>
@@ -3589,7 +3587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
         <v>80</v>
@@ -3601,7 +3599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>82</v>
@@ -3613,7 +3611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
         <v>84</v>
@@ -3625,7 +3623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
         <v>86</v>
@@ -3637,7 +3635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" s="4" t="s">
         <v>88</v>
       </c>
@@ -3650,7 +3648,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>89</v>
@@ -3662,7 +3660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
         <v>91</v>
@@ -3674,7 +3672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
         <v>93</v>
@@ -3686,7 +3684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
         <v>95</v>
@@ -3698,7 +3696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
         <v>97</v>
@@ -3710,7 +3708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" s="4" t="s">
         <v>99</v>
       </c>
@@ -3723,7 +3721,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" s="4"/>
       <c r="B58" s="1" t="s">
         <v>100</v>
@@ -3735,7 +3733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" s="4"/>
       <c r="B59" s="1" t="s">
         <v>102</v>
@@ -3747,7 +3745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" s="4"/>
       <c r="B60" s="1" t="s">
         <v>104</v>
@@ -3759,7 +3757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" s="4"/>
       <c r="B61" s="1" t="s">
         <v>106</v>
@@ -3771,7 +3769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" s="4"/>
       <c r="B62" s="1" t="s">
         <v>108</v>
@@ -3790,21 +3788,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="A1:F62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3813,7 +3811,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -3825,7 +3823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -3840,7 +3838,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -3853,7 +3851,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -3865,7 +3863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
@@ -3877,7 +3875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>11</v>
@@ -3889,7 +3887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>13</v>
@@ -3901,7 +3899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>15</v>
@@ -3913,7 +3911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -3926,7 +3924,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
@@ -3938,7 +3936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>20</v>
@@ -3950,7 +3948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>22</v>
@@ -3962,7 +3960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>24</v>
@@ -3974,7 +3972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -3986,7 +3984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -3999,7 +3997,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -4011,7 +4009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>31</v>
@@ -4023,7 +4021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>33</v>
@@ -4035,7 +4033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>35</v>
@@ -4047,7 +4045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>37</v>
@@ -4059,7 +4057,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -4072,7 +4070,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>40</v>
@@ -4084,7 +4082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>42</v>
@@ -4096,7 +4094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>44</v>
@@ -4108,7 +4106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>46</v>
@@ -4120,7 +4118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>48</v>
@@ -4132,7 +4130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="4" t="s">
         <v>50</v>
       </c>
@@ -4145,7 +4143,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>51</v>
@@ -4157,7 +4155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>53</v>
@@ -4169,7 +4167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>55</v>
@@ -4181,7 +4179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>57</v>
@@ -4193,7 +4191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>59</v>
@@ -4205,7 +4203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="4" t="s">
         <v>61</v>
       </c>
@@ -4218,7 +4216,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>115</v>
@@ -4230,7 +4228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>62</v>
@@ -4242,7 +4240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>64</v>
@@ -4254,7 +4252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>66</v>
@@ -4266,7 +4264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>114</v>
@@ -4278,7 +4276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="4" t="s">
         <v>68</v>
       </c>
@@ -4291,7 +4289,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>69</v>
@@ -4303,7 +4301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>71</v>
@@ -4315,7 +4313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>73</v>
@@ -4327,7 +4325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>75</v>
@@ -4339,7 +4337,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" s="4" t="s">
         <v>77</v>
       </c>
@@ -4352,7 +4350,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>78</v>
@@ -4364,7 +4362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
         <v>80</v>
@@ -4376,7 +4374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>82</v>
@@ -4388,7 +4386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
         <v>84</v>
@@ -4400,7 +4398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
         <v>86</v>
@@ -4412,7 +4410,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" s="4" t="s">
         <v>88</v>
       </c>
@@ -4425,7 +4423,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>89</v>
@@ -4437,7 +4435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
         <v>91</v>
@@ -4449,7 +4447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
         <v>93</v>
@@ -4461,7 +4459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
         <v>95</v>
@@ -4473,7 +4471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
         <v>97</v>
@@ -4485,7 +4483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" s="4" t="s">
         <v>99</v>
       </c>
@@ -4498,7 +4496,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" s="4"/>
       <c r="B58" s="1" t="s">
         <v>100</v>
@@ -4510,7 +4508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" s="4"/>
       <c r="B59" s="1" t="s">
         <v>102</v>
@@ -4522,7 +4520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" s="4"/>
       <c r="B60" s="1" t="s">
         <v>104</v>
@@ -4534,7 +4532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" s="4"/>
       <c r="B61" s="1" t="s">
         <v>106</v>
@@ -4546,7 +4544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" s="4"/>
       <c r="B62" s="1" t="s">
         <v>108</v>
@@ -4564,21 +4562,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4587,7 +4585,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -4599,7 +4597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -4614,7 +4612,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -4627,7 +4625,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -4639,7 +4637,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
@@ -4651,7 +4649,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>11</v>
@@ -4663,7 +4661,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>13</v>
@@ -4675,7 +4673,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>15</v>
@@ -4687,7 +4685,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -4697,7 +4695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
@@ -4709,7 +4707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>20</v>
@@ -4721,7 +4719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>22</v>
@@ -4733,7 +4731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>24</v>
@@ -4745,7 +4743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -4757,7 +4755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -4770,7 +4768,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -4779,10 +4777,10 @@
         <v>30</v>
       </c>
       <c r="D17">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>31</v>
@@ -4791,10 +4789,10 @@
         <v>32</v>
       </c>
       <c r="D18">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>33</v>
@@ -4803,10 +4801,10 @@
         <v>34</v>
       </c>
       <c r="D19">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>35</v>
@@ -4815,10 +4813,10 @@
         <v>36</v>
       </c>
       <c r="D20">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>37</v>
@@ -4827,10 +4825,10 @@
         <v>38</v>
       </c>
       <c r="D21">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -4843,7 +4841,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>40</v>
@@ -4855,7 +4853,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>42</v>
@@ -4867,7 +4865,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>44</v>
@@ -4879,7 +4877,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>46</v>
@@ -4891,7 +4889,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>48</v>
@@ -4903,7 +4901,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="4" t="s">
         <v>50</v>
       </c>
@@ -4916,7 +4914,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>51</v>
@@ -4928,7 +4926,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>53</v>
@@ -4940,7 +4938,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>55</v>
@@ -4952,7 +4950,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>57</v>
@@ -4964,7 +4962,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>59</v>
@@ -4976,7 +4974,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="4" t="s">
         <v>61</v>
       </c>
@@ -4989,7 +4987,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>115</v>
@@ -5001,7 +4999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>62</v>
@@ -5013,7 +5011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>64</v>
@@ -5025,7 +5023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>66</v>
@@ -5037,7 +5035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>114</v>
@@ -5049,7 +5047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="4" t="s">
         <v>68</v>
       </c>
@@ -5062,7 +5060,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>69</v>
@@ -5074,7 +5072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>71</v>
@@ -5086,7 +5084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>73</v>
@@ -5098,7 +5096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>75</v>
@@ -5110,7 +5108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" s="4" t="s">
         <v>77</v>
       </c>
@@ -5123,7 +5121,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>78</v>
@@ -5135,7 +5133,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
         <v>80</v>
@@ -5147,7 +5145,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>82</v>
@@ -5159,7 +5157,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
         <v>84</v>
@@ -5171,7 +5169,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
         <v>86</v>
@@ -5183,7 +5181,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" s="4" t="s">
         <v>88</v>
       </c>
@@ -5196,7 +5194,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>89</v>
@@ -5208,7 +5206,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
         <v>91</v>
@@ -5220,7 +5218,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
         <v>93</v>
@@ -5232,7 +5230,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
         <v>95</v>
@@ -5244,7 +5242,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
         <v>97</v>
@@ -5256,7 +5254,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" s="4" t="s">
         <v>99</v>
       </c>
@@ -5269,7 +5267,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" s="4"/>
       <c r="B58" s="1" t="s">
         <v>100</v>
@@ -5281,7 +5279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" s="4"/>
       <c r="B59" s="1" t="s">
         <v>102</v>
@@ -5293,7 +5291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" s="4"/>
       <c r="B60" s="1" t="s">
         <v>104</v>
@@ -5305,7 +5303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" s="4"/>
       <c r="B61" s="1" t="s">
         <v>106</v>
@@ -5317,7 +5315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" s="4"/>
       <c r="B62" s="1" t="s">
         <v>108</v>
